--- a/doc/04.Schedule/计划及总结/工作计划.xlsx
+++ b/doc/04.Schedule/计划及总结/工作计划.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\doc\04.Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\doc\04.Schedule\计划及总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
+    <sheet name="备份" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$1:$L$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$1:$L$99</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -78,8 +79,64 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>销量、产能、质量、成本、库存、管理基础</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王斌坚:在必须</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="262">
   <si>
     <t>编号</t>
   </si>
@@ -336,15 +393,9 @@
     <t>29</t>
   </si>
   <si>
-    <t>月结（账户【交割单】，股票【当日委托】，个人【当日委托】）</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>各相关报表关联月结单计算</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -370,9 +421,6 @@
   </si>
   <si>
     <t>34</t>
-  </si>
-  <si>
-    <t>三方账号盈亏统计需要重新开发(与现有的数据分开来)</t>
   </si>
   <si>
     <t>35</t>
@@ -764,12 +812,6 @@
     <t>68</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -940,14 +982,6 @@
   </si>
   <si>
     <t>个人交易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔日短差/波段/目标 每日股票交易表示曲线图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合需求的chart组件使用调查及实现</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -957,6 +991,45 @@
     <t>1、账户配置规划表样式颜色字体设置。
 2、增加投资主体的资金信息表，并在账户管理画面增加投资主题的资金信息录入修改处理
 3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主体资金信息表中的数据。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易交割单导入数据模板修改，导入完成画面忽略数据导出功能修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改国泰普通交割单数据导入模板
+2、增加红股入帐和新股入帐交割单数据的买卖判断
+3、修改忽略数据导出excel文件的文件格式为xlsx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>编制完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔日短差/波段/目标 每日股票交易标识曲线图
+新需求文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、隔日持仓：未平仓数量
+2、当日收益：实际收益和浮动收益 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方账号盈亏统计需要重新开发(与现有的数据分开来)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方账号清算流程（个人业绩清算/账号调动等）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人收益报表利息计算变更（累计收益新年重记）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1612,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT266"/>
+  <dimension ref="A1:AT265"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
@@ -1641,7 +1714,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1675,10 +1748,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>8</v>
@@ -1698,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -2057,7 +2130,7 @@
     </row>
     <row r="13" spans="1:12" ht="25.15" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -2201,7 +2274,7 @@
     </row>
     <row r="17" spans="1:12" ht="25.15" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -2325,16 +2398,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="38">
         <v>42664</v>
@@ -2363,16 +2436,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I21" s="38">
         <v>42668</v>
@@ -2401,16 +2474,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I22" s="38">
         <v>42670</v>
@@ -2427,7 +2500,7 @@
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
@@ -2439,13 +2512,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="38">
@@ -2475,13 +2548,13 @@
         <v>13</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="38">
@@ -2511,16 +2584,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I25" s="38">
         <v>42677</v>
@@ -2549,13 +2622,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="38">
@@ -2585,13 +2658,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="38">
@@ -2627,10 +2700,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I28" s="38">
         <v>42685</v>
@@ -2659,16 +2732,16 @@
         <v>13</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I29" s="38">
         <v>42688</v>
@@ -2697,16 +2770,16 @@
         <v>13</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I30" s="38">
         <v>42688</v>
@@ -2735,16 +2808,16 @@
         <v>13</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I31" s="38">
         <v>42688</v>
@@ -2761,7 +2834,7 @@
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>11</v>
@@ -2773,16 +2846,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I32" s="38">
         <v>42689</v>
@@ -2799,7 +2872,7 @@
     </row>
     <row r="33" spans="1:46" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>11</v>
@@ -2811,16 +2884,16 @@
         <v>13</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I33" s="38">
         <v>42689</v>
@@ -2837,7 +2910,7 @@
     </row>
     <row r="34" spans="1:46" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -2849,16 +2922,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I34" s="38">
         <v>42689</v>
@@ -2875,7 +2948,7 @@
     </row>
     <row r="35" spans="1:46" s="46" customFormat="1" ht="42.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>11</v>
@@ -2887,16 +2960,16 @@
         <v>13</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I35" s="48">
         <v>42720</v>
@@ -2913,7 +2986,7 @@
     </row>
     <row r="36" spans="1:46" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
@@ -2925,16 +2998,16 @@
         <v>13</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I36" s="38">
         <v>42711</v>
@@ -2951,7 +3024,7 @@
     </row>
     <row r="37" spans="1:46" s="15" customFormat="1" ht="32.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>11</v>
@@ -2963,16 +3036,16 @@
         <v>13</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I37" s="38">
         <v>42712</v>
@@ -2989,7 +3062,7 @@
     </row>
     <row r="38" spans="1:46" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>11</v>
@@ -3001,16 +3074,16 @@
         <v>13</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I38" s="38">
         <v>42713</v>
@@ -3027,28 +3100,28 @@
     </row>
     <row r="39" spans="1:46" s="46" customFormat="1" ht="54" customHeight="1">
       <c r="A39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>106</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I39" s="48">
         <v>42727</v>
@@ -3065,7 +3138,7 @@
     </row>
     <row r="40" spans="1:46" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>11</v>
@@ -3077,16 +3150,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I40" s="48">
         <v>42731</v>
@@ -3103,7 +3176,7 @@
     </row>
     <row r="41" spans="1:46" s="15" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>11</v>
@@ -3115,13 +3188,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="38">
@@ -3139,7 +3212,7 @@
     </row>
     <row r="42" spans="1:46" s="15" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>11</v>
@@ -3151,16 +3224,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I42" s="38">
         <v>42739</v>
@@ -3207,7 +3280,7 @@
     </row>
     <row r="43" spans="1:46" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>11</v>
@@ -3219,16 +3292,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I43" s="38">
         <v>42740</v>
@@ -3275,7 +3348,7 @@
     </row>
     <row r="44" spans="1:46" s="15" customFormat="1" ht="66.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -3287,16 +3360,16 @@
         <v>13</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I44" s="38">
         <v>42741</v>
@@ -3343,7 +3416,7 @@
     </row>
     <row r="45" spans="1:46" s="15" customFormat="1" ht="126.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>11</v>
@@ -3355,16 +3428,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I45" s="38">
         <v>42741</v>
@@ -3411,7 +3484,7 @@
     </row>
     <row r="46" spans="1:46" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>11</v>
@@ -3423,16 +3496,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I46" s="38">
         <v>42744</v>
@@ -3449,7 +3522,7 @@
     </row>
     <row r="47" spans="1:46" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>11</v>
@@ -3461,16 +3534,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I47" s="38">
         <v>42745</v>
@@ -3487,7 +3560,7 @@
     </row>
     <row r="48" spans="1:46" s="15" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>11</v>
@@ -3499,16 +3572,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I48" s="38">
         <v>42746</v>
@@ -3525,7 +3598,7 @@
     </row>
     <row r="49" spans="1:14" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>11</v>
@@ -3537,16 +3610,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I49" s="38">
         <v>42747</v>
@@ -3561,9 +3634,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="15" customFormat="1" ht="42" customHeight="1">
+    <row r="50" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>11</v>
@@ -3575,16 +3648,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I50" s="38">
         <v>42748</v>
@@ -3601,7 +3674,7 @@
     </row>
     <row r="51" spans="1:14" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>11</v>
@@ -3613,16 +3686,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I51" s="38">
         <v>42751</v>
@@ -3641,7 +3714,7 @@
     </row>
     <row r="52" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>11</v>
@@ -3653,16 +3726,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I52" s="38">
         <v>42752</v>
@@ -3681,7 +3754,7 @@
     </row>
     <row r="53" spans="1:14" s="15" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>11</v>
@@ -3693,16 +3766,16 @@
         <v>13</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I53" s="38">
         <v>42755</v>
@@ -3721,7 +3794,7 @@
     </row>
     <row r="54" spans="1:14" s="15" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>11</v>
@@ -3733,16 +3806,16 @@
         <v>13</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I54" s="38">
         <v>42755</v>
@@ -3761,7 +3834,7 @@
     </row>
     <row r="55" spans="1:14" s="15" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>11</v>
@@ -3773,16 +3846,16 @@
         <v>13</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I55" s="38">
         <v>42773</v>
@@ -3794,14 +3867,14 @@
         <v>18</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" s="15" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>11</v>
@@ -3813,16 +3886,16 @@
         <v>13</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I56" s="38">
         <v>42775</v>
@@ -3841,7 +3914,7 @@
     </row>
     <row r="57" spans="1:14" s="15" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>11</v>
@@ -3853,16 +3926,16 @@
         <v>13</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I57" s="38">
         <v>42775</v>
@@ -3874,14 +3947,14 @@
         <v>18</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" s="15" customFormat="1" ht="27" customHeight="1">
+    <row r="58" spans="1:14" s="15" customFormat="1" ht="86.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>11</v>
@@ -3893,16 +3966,16 @@
         <v>13</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I58" s="12">
         <v>42780</v>
@@ -3917,47 +3990,49 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="96.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F59" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="I59" s="42">
-        <v>42783</v>
-      </c>
-      <c r="J59" s="42"/>
-      <c r="K59" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-    </row>
-    <row r="60" spans="1:14" s="46" customFormat="1" ht="48.75" customHeight="1">
+      <c r="G59" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="38">
+        <v>42781</v>
+      </c>
+      <c r="J59" s="38">
+        <v>42781</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>11</v>
@@ -3969,21 +4044,21 @@
         <v>13</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I60" s="42">
-        <v>42804</v>
-      </c>
-      <c r="J60" s="43"/>
+        <v>42783</v>
+      </c>
+      <c r="J60" s="42"/>
       <c r="K60" s="44" t="s">
         <v>18</v>
       </c>
@@ -3993,9 +4068,9 @@
       <c r="M60" s="45"/>
       <c r="N60" s="45"/>
     </row>
-    <row r="61" spans="1:14" s="46" customFormat="1" ht="66" customHeight="1">
+    <row r="61" spans="1:14" s="46" customFormat="1" ht="48.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B61" s="39" t="s">
         <v>11</v>
@@ -4007,21 +4082,21 @@
         <v>13</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I61" s="42">
-        <v>42825</v>
-      </c>
-      <c r="J61" s="44"/>
+        <v>42804</v>
+      </c>
+      <c r="J61" s="43"/>
       <c r="K61" s="44" t="s">
         <v>18</v>
       </c>
@@ -4031,43 +4106,47 @@
       <c r="M61" s="45"/>
       <c r="N61" s="45"/>
     </row>
-    <row r="62" spans="1:14" ht="25.15" customHeight="1">
+    <row r="62" spans="1:14" s="46" customFormat="1" ht="44.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="13" t="s">
+      <c r="G62" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="42">
+        <v>42825</v>
+      </c>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="44" t="s">
         <v>39</v>
       </c>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
     </row>
     <row r="63" spans="1:14" ht="25.15" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>11</v>
@@ -4079,16 +4158,16 @@
         <v>13</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="27"/>
@@ -4099,9 +4178,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="64" spans="1:14" ht="25.15" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -4113,16 +4192,16 @@
         <v>13</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="27"/>
@@ -4133,9 +4212,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="25.15" customHeight="1">
+    <row r="65" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
@@ -4147,27 +4226,29 @@
         <v>13</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="27"/>
       <c r="K65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="13"/>
+      <c r="L65" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="25.15" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>11</v>
@@ -4179,27 +4260,27 @@
         <v>13</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="22" t="s">
-        <v>74</v>
+      <c r="G66" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="29.25" customHeight="1">
+    <row r="67" spans="1:12" ht="25.15" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>11</v>
@@ -4211,16 +4292,16 @@
         <v>13</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
@@ -4229,9 +4310,9 @@
       </c>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="25.15" customHeight="1">
+    <row r="68" spans="1:12" ht="29.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>11</v>
@@ -4243,17 +4324,19 @@
         <v>13</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
       <c r="K68" s="13" t="s">
         <v>18</v>
       </c>
@@ -4261,7 +4344,7 @@
     </row>
     <row r="69" spans="1:12" ht="25.15" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>11</v>
@@ -4273,25 +4356,25 @@
         <v>13</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>83</v>
+      <c r="G69" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="H69" s="10"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="70" spans="1:12" ht="25.15" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>11</v>
@@ -4309,19 +4392,19 @@
         <v>15</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H70" s="10"/>
-      <c r="I70" s="27"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="27"/>
       <c r="K70" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="71" spans="1:12" ht="25.15" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>11</v>
@@ -4341,8 +4424,10 @@
       <c r="G71" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="27"/>
+      <c r="H71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" s="12"/>
       <c r="J71" s="27"/>
       <c r="K71" s="13" t="s">
         <v>18</v>
@@ -4351,7 +4436,7 @@
     </row>
     <row r="72" spans="1:12" ht="25.15" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>11</v>
@@ -4363,17 +4448,15 @@
         <v>13</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="G72" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="12"/>
       <c r="J72" s="27"/>
       <c r="K72" s="13" t="s">
@@ -4383,7 +4466,7 @@
     </row>
     <row r="73" spans="1:12" ht="25.15" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>11</v>
@@ -4395,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>15</v>
@@ -4404,7 +4487,7 @@
         <v>93</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="27"/>
       <c r="K73" s="13" t="s">
         <v>18</v>
@@ -4413,7 +4496,7 @@
     </row>
     <row r="74" spans="1:12" ht="25.15" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>11</v>
@@ -4425,16 +4508,16 @@
         <v>13</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>95</v>
+      <c r="G74" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="H74" s="10"/>
-      <c r="I74" s="29"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="27"/>
       <c r="K74" s="13" t="s">
         <v>18</v>
@@ -4443,7 +4526,7 @@
     </row>
     <row r="75" spans="1:12" ht="25.15" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>11</v>
@@ -4455,7 +4538,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>15</v>
@@ -4464,7 +4547,7 @@
         <v>97</v>
       </c>
       <c r="H75" s="10"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="27"/>
       <c r="J75" s="27"/>
       <c r="K75" s="13" t="s">
         <v>18</v>
@@ -4473,7 +4556,7 @@
     </row>
     <row r="76" spans="1:12" ht="25.15" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>11</v>
@@ -4485,62 +4568,52 @@
         <v>13</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>100</v>
+      <c r="G76" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="H76" s="10"/>
-      <c r="I76" s="27"/>
+      <c r="I76" s="12"/>
       <c r="J76" s="27"/>
       <c r="K76" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="25.15" customHeight="1">
+    <row r="77" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>102</v>
+        <v>212</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="H77" s="10"/>
-      <c r="I77" s="12"/>
+      <c r="I77" s="27"/>
       <c r="J77" s="27"/>
-      <c r="K77" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="25"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="H78" s="10"/>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
@@ -4549,7 +4622,7 @@
     </row>
     <row r="79" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4565,7 +4638,7 @@
     </row>
     <row r="80" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4581,7 +4654,7 @@
     </row>
     <row r="81" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4596,9 +4669,7 @@
       <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>220</v>
-      </c>
+      <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="25"/>
@@ -5297,7 +5368,7 @@
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="132" spans="1:12" ht="25.15" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5313,9 +5384,9 @@
     </row>
     <row r="133" spans="1:12" ht="25.15" customHeight="1">
       <c r="A133" s="8"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="25"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="11"/>
@@ -5327,9 +5398,9 @@
     </row>
     <row r="134" spans="1:12" ht="25.15" customHeight="1">
       <c r="A134" s="8"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="11"/>
@@ -5341,9 +5412,9 @@
     </row>
     <row r="135" spans="1:12" ht="25.15" customHeight="1">
       <c r="A135" s="8"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="11"/>
@@ -5355,9 +5426,9 @@
     </row>
     <row r="136" spans="1:12" ht="25.15" customHeight="1">
       <c r="A136" s="8"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="11"/>
@@ -5399,7 +5470,7 @@
       <c r="A139" s="8"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="11"/>
@@ -5424,44 +5495,43 @@
       <c r="L140" s="13"/>
     </row>
     <row r="141" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A141" s="8"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="31"/>
     </row>
     <row r="142" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="31"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="13"/>
     </row>
     <row r="143" spans="1:12" ht="25.15" customHeight="1">
       <c r="A143" s="8"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="11"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="35"/>
       <c r="H143" s="10"/>
       <c r="I143" s="27"/>
       <c r="J143" s="27"/>
-      <c r="K143" s="13"/>
+      <c r="K143" s="27"/>
     </row>
     <row r="144" spans="1:12" ht="25.15" customHeight="1">
       <c r="A144" s="8"/>
@@ -5489,7 +5559,7 @@
       <c r="J145" s="27"/>
       <c r="K145" s="27"/>
     </row>
-    <row r="146" spans="1:12" ht="25.15" customHeight="1">
+    <row r="146" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5501,6 +5571,7 @@
       <c r="I146" s="27"/>
       <c r="J146" s="27"/>
       <c r="K146" s="27"/>
+      <c r="L146" s="18"/>
     </row>
     <row r="147" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A147" s="8"/>
@@ -5535,13 +5606,13 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="25"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="35"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="10"/>
       <c r="I149" s="27"/>
       <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
+      <c r="K149" s="13"/>
       <c r="L149" s="18"/>
     </row>
     <row r="150" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
@@ -5601,10 +5672,10 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A154" s="8"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="25"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="11"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
       <c r="G154" s="11"/>
@@ -5618,7 +5689,7 @@
       <c r="A155" s="37"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
-      <c r="D155" s="11"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
       <c r="G155" s="11"/>
@@ -5646,7 +5717,7 @@
       <c r="A157" s="37"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
-      <c r="D157" s="25"/>
+      <c r="D157" s="11"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
       <c r="G157" s="11"/>
@@ -5688,7 +5759,7 @@
       <c r="A160" s="37"/>
       <c r="B160" s="24"/>
       <c r="C160" s="24"/>
-      <c r="D160" s="11"/>
+      <c r="D160" s="25"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="11"/>
@@ -5797,24 +5868,24 @@
       <c r="L167" s="18"/>
     </row>
     <row r="168" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A168" s="37"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="25"/>
+      <c r="A168" s="27"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="11"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
       <c r="G168" s="11"/>
       <c r="H168" s="10"/>
       <c r="I168" s="27"/>
       <c r="J168" s="27"/>
-      <c r="K168" s="13"/>
+      <c r="K168" s="27"/>
       <c r="L168" s="18"/>
     </row>
     <row r="169" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="11"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
       <c r="G169" s="11"/>
@@ -5936,7 +6007,7 @@
       <c r="K177" s="27"/>
       <c r="L177" s="18"/>
     </row>
-    <row r="178" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="178" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6038,7 +6109,7 @@
       <c r="A185" s="27"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
-      <c r="D185" s="25"/>
+      <c r="D185" s="11"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
       <c r="G185" s="11"/>
@@ -6052,7 +6123,7 @@
       <c r="A186" s="27"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
       <c r="G186" s="11"/>
@@ -6094,7 +6165,7 @@
       <c r="A189" s="27"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
-      <c r="D189" s="25"/>
+      <c r="D189" s="11"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
       <c r="G189" s="11"/>
@@ -6136,7 +6207,7 @@
       <c r="A192" s="27"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
-      <c r="D192" s="11"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
       <c r="G192" s="11"/>
@@ -6248,7 +6319,7 @@
       <c r="A200" s="27"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
-      <c r="D200" s="25"/>
+      <c r="D200" s="11"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
       <c r="G200" s="11"/>
@@ -6388,7 +6459,7 @@
       <c r="A210" s="27"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
-      <c r="D210" s="11"/>
+      <c r="D210" s="25"/>
       <c r="E210" s="13"/>
       <c r="F210" s="13"/>
       <c r="G210" s="11"/>
@@ -6430,7 +6501,7 @@
       <c r="A213" s="27"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
-      <c r="D213" s="25"/>
+      <c r="D213" s="11"/>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
       <c r="G213" s="11"/>
@@ -6444,7 +6515,7 @@
       <c r="A214" s="27"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
-      <c r="D214" s="11"/>
+      <c r="D214" s="25"/>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
       <c r="G214" s="11"/>
@@ -6458,7 +6529,7 @@
       <c r="A215" s="27"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
-      <c r="D215" s="25"/>
+      <c r="D215" s="11"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
       <c r="G215" s="11"/>
@@ -6472,7 +6543,7 @@
       <c r="A216" s="27"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
-      <c r="D216" s="11"/>
+      <c r="D216" s="25"/>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
       <c r="G216" s="11"/>
@@ -6570,7 +6641,7 @@
       <c r="A223" s="27"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
-      <c r="D223" s="25"/>
+      <c r="D223" s="11"/>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
       <c r="G223" s="11"/>
@@ -6584,7 +6655,7 @@
       <c r="A224" s="27"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
-      <c r="D224" s="11"/>
+      <c r="D224" s="25"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
       <c r="G224" s="11"/>
@@ -6626,7 +6697,7 @@
       <c r="A227" s="27"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
-      <c r="D227" s="25"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
       <c r="G227" s="11"/>
@@ -6640,7 +6711,7 @@
       <c r="A228" s="27"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
-      <c r="D228" s="11"/>
+      <c r="D228" s="25"/>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
       <c r="G228" s="11"/>
@@ -6710,7 +6781,7 @@
       <c r="A233" s="27"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
-      <c r="D233" s="25"/>
+      <c r="D233" s="11"/>
       <c r="E233" s="13"/>
       <c r="F233" s="13"/>
       <c r="G233" s="11"/>
@@ -6724,7 +6795,7 @@
       <c r="A234" s="27"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
-      <c r="D234" s="11"/>
+      <c r="D234" s="25"/>
       <c r="E234" s="13"/>
       <c r="F234" s="13"/>
       <c r="G234" s="11"/>
@@ -6794,7 +6865,7 @@
       <c r="A239" s="27"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
-      <c r="D239" s="25"/>
+      <c r="D239" s="11"/>
       <c r="E239" s="13"/>
       <c r="F239" s="13"/>
       <c r="G239" s="11"/>
@@ -6808,7 +6879,7 @@
       <c r="A240" s="27"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
-      <c r="D240" s="11"/>
+      <c r="D240" s="25"/>
       <c r="E240" s="13"/>
       <c r="F240" s="13"/>
       <c r="G240" s="11"/>
@@ -6878,7 +6949,7 @@
       <c r="A245" s="27"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
-      <c r="D245" s="25"/>
+      <c r="D245" s="11"/>
       <c r="E245" s="13"/>
       <c r="F245" s="13"/>
       <c r="G245" s="11"/>
@@ -6892,7 +6963,7 @@
       <c r="A246" s="27"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
-      <c r="D246" s="11"/>
+      <c r="D246" s="25"/>
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
       <c r="G246" s="11"/>
@@ -6917,7 +6988,7 @@
       <c r="L247" s="18"/>
     </row>
     <row r="248" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A248" s="27"/>
+      <c r="A248" s="8"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="25"/>
@@ -6962,7 +7033,7 @@
       <c r="A251" s="8"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
-      <c r="D251" s="25"/>
+      <c r="D251" s="11"/>
       <c r="E251" s="13"/>
       <c r="F251" s="13"/>
       <c r="G251" s="11"/>
@@ -6976,7 +7047,7 @@
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
-      <c r="D252" s="11"/>
+      <c r="D252" s="25"/>
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
       <c r="G252" s="11"/>
@@ -7004,7 +7075,7 @@
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
-      <c r="D254" s="25"/>
+      <c r="D254" s="11"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
       <c r="G254" s="11"/>
@@ -7032,7 +7103,7 @@
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
-      <c r="D256" s="11"/>
+      <c r="D256" s="25"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
       <c r="G256" s="11"/>
@@ -7086,16 +7157,16 @@
     </row>
     <row r="260" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A260" s="8"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="25"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="11"/>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
       <c r="G260" s="11"/>
       <c r="H260" s="10"/>
       <c r="I260" s="27"/>
       <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
+      <c r="K260" s="13"/>
       <c r="L260" s="18"/>
     </row>
     <row r="261" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
@@ -7140,7 +7211,7 @@
       <c r="K263" s="13"/>
       <c r="L263" s="18"/>
     </row>
-    <row r="264" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="264" spans="1:12">
       <c r="A264" s="8"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -7152,7 +7223,6 @@
       <c r="I264" s="27"/>
       <c r="J264" s="27"/>
       <c r="K264" s="13"/>
-      <c r="L264" s="18"/>
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="8"/>
@@ -7167,19 +7237,6 @@
       <c r="J265" s="27"/>
       <c r="K265" s="13"/>
     </row>
-    <row r="266" spans="1:12">
-      <c r="A266" s="8"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="11"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="27"/>
-      <c r="J266" s="27"/>
-      <c r="K266" s="13"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
   <sortState ref="A3:L299">
@@ -7187,7 +7244,7 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G149">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G148">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>
@@ -7199,4 +7256,172 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" s="20" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>